--- a/2024.04.24.이병은부장/20240603/1차잔여업무_우선순위_개발관리_20240603.xlsx
+++ b/2024.04.24.이병은부장/20240603/1차잔여업무_우선순위_개발관리_20240603.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\옷장\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/softm/Work/onpoom/2024.04.24.이병은부장/20240603/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73651DB3-0F05-4D2F-9C88-1E9CAA284D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A45B38-393A-6644-BD10-390104864555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.총괄" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,10 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="기준일">'0.총괄'!$H$3</definedName>
+    <definedName name="착수일">'0.총괄'!$B$3</definedName>
+    <definedName name="휴일목록">'[2]1.사업관리'!$X$32:$X$45</definedName>
+    <definedName name="ㅓㅘㅗ">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="add">#REF!</definedName>
     <definedName name="b">#REF!</definedName>
@@ -56,10 +60,6 @@
     <definedName name="staffDay">#REF!</definedName>
     <definedName name="staffMonth">#REF!</definedName>
     <definedName name="staffWeek">#REF!</definedName>
-    <definedName name="기준일">'0.총괄'!$H$3</definedName>
-    <definedName name="착수일">'0.총괄'!$B$3</definedName>
-    <definedName name="휴일목록">'[2]1.사업관리'!$X$32:$X$45</definedName>
-    <definedName name="ㅓㅘㅗ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1001,7 +1001,7 @@
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1627,7 +1627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1870,17 +1870,98 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="6" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="6" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1888,134 +1969,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="6" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="7" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="7" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="6" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3849,7 +3804,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="표지"/>
@@ -3892,7 +3847,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="표지"/>
@@ -4297,33 +4252,33 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="27" customWidth="1"/>
-    <col min="3" max="8" width="17.33203125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="28" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="27"/>
-    <col min="12" max="12" width="9.44140625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="27" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="12.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="27" customWidth="1"/>
+    <col min="3" max="8" width="17.28515625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="27"/>
+    <col min="12" max="12" width="9.42578125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="27" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A1" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17" customHeight="1">
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -4336,7 +4291,7 @@
       <c r="H2" s="70"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="27.5" customHeight="1" thickBot="1">
       <c r="A3" s="67" t="s">
         <v>114</v>
       </c>
@@ -4363,11 +4318,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="37.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:10" ht="37.25" customHeight="1" thickTop="1">
+      <c r="A4" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="35" t="s">
         <v>108</v>
       </c>
@@ -4388,11 +4343,11 @@
       </c>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="29.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+    <row r="5" spans="1:10" ht="29" hidden="1" customHeight="1">
+      <c r="A5" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="63">
         <f>SUM(C6:C7)</f>
         <v>1.0999999999999999</v>
@@ -4416,11 +4371,11 @@
       <c r="H5" s="60"/>
       <c r="I5" s="39"/>
     </row>
-    <row r="6" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="101" t="s">
+    <row r="6" spans="1:10" ht="21.75" hidden="1" customHeight="1">
+      <c r="A6" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="53">
         <v>0.1</v>
       </c>
@@ -4443,11 +4398,11 @@
       <c r="H6" s="56"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+    <row r="7" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A7" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="53">
         <f>SUM(C8:C12)</f>
         <v>0.99999999999999989</v>
@@ -4471,7 +4426,7 @@
       <c r="H7" s="56"/>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="21.75" customHeight="1">
       <c r="A8" s="57"/>
       <c r="B8" s="34" t="s">
         <v>253</v>
@@ -4499,7 +4454,7 @@
       <c r="I8" s="39"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="21.75" customHeight="1">
       <c r="A9" s="54"/>
       <c r="B9" s="34" t="s">
         <v>254</v>
@@ -4527,7 +4482,7 @@
       <c r="I9" s="39"/>
       <c r="J9" s="38"/>
     </row>
-    <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="21.75" customHeight="1">
       <c r="A10" s="54"/>
       <c r="B10" s="34" t="s">
         <v>255</v>
@@ -4553,7 +4508,7 @@
       <c r="I10" s="39"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="21.75" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="33" t="s">
         <v>256</v>
@@ -4579,7 +4534,7 @@
       <c r="I11" s="39"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="21.75" customHeight="1">
       <c r="A12" s="54"/>
       <c r="B12" s="33" t="s">
         <v>257</v>
@@ -4605,9 +4560,9 @@
       <c r="I12" s="39"/>
       <c r="J12" s="38"/>
     </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="48"/>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -4617,7 +4572,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="38"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="20" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="43"/>
@@ -4629,7 +4584,7 @@
       <c r="I14" s="39"/>
       <c r="J14" s="38"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="20" customHeight="1" thickTop="1">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="D15" s="37" t="s">
@@ -4645,7 +4600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="B16" s="29" t="s">
         <v>97</v>
       </c>
@@ -4666,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="20" customHeight="1">
       <c r="B17" s="34" t="s">
         <v>6</v>
       </c>
@@ -4687,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="20" customHeight="1">
       <c r="B18" s="34" t="s">
         <v>116</v>
       </c>
@@ -4709,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="20" customHeight="1">
       <c r="B19" s="34" t="s">
         <v>117</v>
       </c>
@@ -4731,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="20" customHeight="1">
       <c r="B20" s="33" t="s">
         <v>118</v>
       </c>
@@ -4753,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="20" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>119</v>
       </c>
@@ -4774,74 +4729,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="20" customHeight="1"/>
+    <row r="23" spans="2:7" ht="20" customHeight="1"/>
+    <row r="24" spans="2:7" ht="20" customHeight="1"/>
+    <row r="25" spans="2:7" ht="20" customHeight="1"/>
+    <row r="26" spans="2:7" ht="18" customHeight="1"/>
+    <row r="27" spans="2:7" ht="18" customHeight="1"/>
+    <row r="28" spans="2:7" ht="18" customHeight="1"/>
+    <row r="29" spans="2:7" ht="18" customHeight="1"/>
+    <row r="30" spans="2:7" ht="18" customHeight="1"/>
+    <row r="31" spans="2:7" ht="18" customHeight="1"/>
+    <row r="32" spans="2:7" ht="18" customHeight="1"/>
+    <row r="33" spans="2:10" ht="18" customHeight="1"/>
+    <row r="34" spans="2:10" ht="18" customHeight="1"/>
+    <row r="35" spans="2:10" ht="18" customHeight="1"/>
+    <row r="36" spans="2:10" ht="18" customHeight="1"/>
+    <row r="37" spans="2:10" ht="18" customHeight="1"/>
+    <row r="38" spans="2:10" ht="18" customHeight="1"/>
+    <row r="39" spans="2:10" ht="18" customHeight="1">
       <c r="D39" s="32"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="18" customHeight="1">
       <c r="B40" s="30"/>
       <c r="C40" s="29"/>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="18" customHeight="1"/>
+    <row r="42" spans="2:10" ht="18" customHeight="1"/>
+    <row r="43" spans="2:10" ht="18" customHeight="1"/>
+    <row r="44" spans="2:10" ht="18" customHeight="1"/>
+    <row r="45" spans="2:10" ht="18" customHeight="1"/>
+    <row r="46" spans="2:10" ht="18" customHeight="1">
       <c r="J46" s="27"/>
     </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" ht="18" customHeight="1">
       <c r="J47" s="27"/>
     </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="18" customHeight="1">
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="10:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" ht="18" customHeight="1">
       <c r="J49" s="27"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:10">
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:10">
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:10">
       <c r="J52" s="27"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:10">
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:10">
       <c r="J54" s="27"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:10">
       <c r="J55" s="27"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:10">
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:10">
       <c r="J57" s="27"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:10">
       <c r="J58" s="27"/>
     </row>
   </sheetData>
@@ -4872,18 +4827,18 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="83.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -4926,16 +4881,16 @@
       <c r="N1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="102" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="103"/>
-    </row>
-    <row r="2" spans="1:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="95"/>
+    </row>
+    <row r="2" spans="1:18" ht="43" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4972,20 +4927,20 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+    <row r="3" spans="1:18" ht="26" customHeight="1">
+      <c r="A3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="93" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -5024,12 +4979,12 @@
       </c>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="105"/>
+    <row r="4" spans="1:18" ht="26" customHeight="1">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
@@ -5066,12 +5021,12 @@
       </c>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="105"/>
+    <row r="5" spans="1:18" ht="26" customHeight="1">
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
@@ -5108,12 +5063,12 @@
       </c>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="105"/>
+    <row r="6" spans="1:18" ht="26" customHeight="1">
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
@@ -5150,12 +5105,12 @@
       </c>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="105"/>
+    <row r="7" spans="1:18" ht="26" customHeight="1">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
@@ -5192,12 +5147,12 @@
       </c>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="105"/>
+    <row r="8" spans="1:18" ht="26" customHeight="1">
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
@@ -5234,12 +5189,12 @@
       </c>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="105" t="s">
+    <row r="9" spans="1:18" ht="26" customHeight="1">
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -5278,12 +5233,12 @@
       </c>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="105"/>
+    <row r="10" spans="1:18" ht="26" customHeight="1">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="2" t="s">
         <v>45</v>
       </c>
@@ -5320,11 +5275,11 @@
       </c>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+    <row r="11" spans="1:18" ht="26" customHeight="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="20" t="s">
         <v>19</v>
       </c>
@@ -5364,11 +5319,11 @@
       </c>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
+    <row r="12" spans="1:18" ht="26" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="20"/>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -5406,11 +5361,11 @@
       </c>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+    <row r="13" spans="1:18" ht="26" customHeight="1">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="20"/>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -5450,13 +5405,13 @@
       </c>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+    <row r="14" spans="1:18" ht="26" customHeight="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="96" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -5494,13 +5449,13 @@
       </c>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
+    <row r="15" spans="1:18" ht="26" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="104"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
@@ -5536,13 +5491,13 @@
       </c>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
+    <row r="16" spans="1:18" ht="26" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="96" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -5580,13 +5535,13 @@
       </c>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+    <row r="17" spans="1:18" ht="26" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="104"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="2" t="s">
         <v>30</v>
       </c>
@@ -5622,11 +5577,11 @@
       </c>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
+    <row r="18" spans="1:18" ht="26" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="20" t="s">
         <v>12</v>
       </c>
@@ -5666,11 +5621,11 @@
       </c>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
+    <row r="19" spans="1:18" ht="26" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="20" t="s">
         <v>12</v>
       </c>
@@ -5710,11 +5665,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
     </row>
-    <row r="20" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
+    <row r="20" spans="1:18" ht="26" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="20"/>
       <c r="F20" s="2" t="s">
         <v>32</v>
@@ -5752,11 +5707,11 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+    <row r="21" spans="1:18" ht="26" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="20"/>
       <c r="F21" s="2" t="s">
         <v>33</v>
@@ -5794,11 +5749,11 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
+    <row r="22" spans="1:18" ht="26" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="20"/>
       <c r="F22" s="2" t="s">
         <v>13</v>
@@ -5836,11 +5791,11 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
+    <row r="23" spans="1:18" ht="26" customHeight="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
       <c r="E23" s="20"/>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -5878,11 +5833,11 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
     </row>
-    <row r="24" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
+    <row r="24" spans="1:18" ht="26" customHeight="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="20"/>
       <c r="F24" s="2" t="s">
         <v>15</v>
@@ -5920,11 +5875,11 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
     </row>
-    <row r="25" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
+    <row r="25" spans="1:18" ht="26" customHeight="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="20"/>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -5962,11 +5917,11 @@
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
     </row>
-    <row r="26" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
+    <row r="26" spans="1:18" ht="26" customHeight="1">
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="20"/>
       <c r="F26" s="2" t="s">
         <v>17</v>
@@ -6004,11 +5959,11 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
     </row>
-    <row r="27" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
+    <row r="27" spans="1:18" ht="26" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="21" t="s">
         <v>18</v>
       </c>
@@ -6044,11 +5999,11 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
     </row>
-    <row r="28" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
+    <row r="28" spans="1:18" ht="26" customHeight="1">
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="21" t="s">
         <v>42</v>
       </c>
@@ -6086,16 +6041,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E3:E8"/>
     <mergeCell ref="A3:A28"/>
     <mergeCell ref="B3:B28"/>
     <mergeCell ref="C3:C28"/>
     <mergeCell ref="D3:D28"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E3:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6107,23 +6062,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G27" activeCellId="2" sqref="I30:P30 G30 G27:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="43" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>88</v>
       </c>
@@ -6166,16 +6121,16 @@
       <c r="N1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="102" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="103"/>
-    </row>
-    <row r="2" spans="1:18" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R1" s="95"/>
+    </row>
+    <row r="2" spans="1:18" ht="43" customHeight="1" thickBot="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6212,17 +6167,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:18" ht="26" customHeight="1">
+      <c r="A3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="97" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="76" t="s">
@@ -6259,11 +6214,11 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+    <row r="4" spans="1:18" ht="26" customHeight="1">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="78"/>
       <c r="F4" s="2" t="s">
         <v>122</v>
@@ -6296,11 +6251,11 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+    <row r="5" spans="1:18" ht="26" customHeight="1">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="78"/>
       <c r="F5" s="2" t="s">
         <v>45</v>
@@ -6333,11 +6288,11 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+    <row r="6" spans="1:18" ht="26" customHeight="1">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="78"/>
       <c r="F6" s="2" t="s">
         <v>46</v>
@@ -6370,11 +6325,11 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
+    <row r="7" spans="1:18" ht="26" customHeight="1">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="78"/>
       <c r="F7" s="2" t="s">
         <v>65</v>
@@ -6407,12 +6362,12 @@
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="110" t="s">
+    <row r="8" spans="1:18" ht="26" customHeight="1">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="100" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -6446,12 +6401,12 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="111"/>
+    <row r="9" spans="1:18" ht="26" customHeight="1">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="2" t="s">
         <v>64</v>
       </c>
@@ -6483,12 +6438,12 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="111"/>
+    <row r="10" spans="1:18" ht="26" customHeight="1">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="2" t="s">
         <v>63</v>
       </c>
@@ -6520,12 +6475,12 @@
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="111"/>
+    <row r="11" spans="1:18" ht="26" customHeight="1">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="2" t="s">
         <v>62</v>
       </c>
@@ -6557,12 +6512,12 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="111"/>
+    <row r="12" spans="1:18" ht="26" customHeight="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="2" t="s">
         <v>61</v>
       </c>
@@ -6594,12 +6549,12 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="111"/>
+    <row r="13" spans="1:18" ht="26" customHeight="1">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
@@ -6631,12 +6586,12 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="111"/>
+    <row r="14" spans="1:18" ht="26" customHeight="1">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
@@ -6668,12 +6623,12 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="111"/>
+    <row r="15" spans="1:18" ht="26" customHeight="1">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
@@ -6705,12 +6660,12 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="111"/>
+    <row r="16" spans="1:18" ht="26" customHeight="1">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="101"/>
       <c r="F16" s="2" t="s">
         <v>57</v>
       </c>
@@ -6742,12 +6697,12 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="111"/>
+    <row r="17" spans="1:18" ht="26" customHeight="1">
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="2" t="s">
         <v>56</v>
       </c>
@@ -6779,12 +6734,12 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="111"/>
+    <row r="18" spans="1:18" ht="26" customHeight="1">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="101"/>
       <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
@@ -6816,12 +6771,12 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="112"/>
+    <row r="19" spans="1:18" ht="26" customHeight="1">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="2" t="s">
         <v>54</v>
       </c>
@@ -6853,18 +6808,18 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
     </row>
-    <row r="20" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="126" t="s">
+    <row r="20" spans="1:18" ht="26" customHeight="1">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="125" t="s">
+      <c r="F20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="125"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="5" t="s">
         <v>49</v>
       </c>
@@ -6892,16 +6847,16 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="125" t="s">
+    <row r="21" spans="1:18" ht="26" customHeight="1">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="125"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="5" t="s">
         <v>49</v>
       </c>
@@ -6929,16 +6884,16 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="119" t="s">
+    <row r="22" spans="1:18" ht="26" customHeight="1">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="119" t="s">
+      <c r="G22" s="81" t="s">
         <v>77</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -6968,16 +6923,16 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="118" t="s">
+    <row r="23" spans="1:18" ht="26" customHeight="1">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="119" t="s">
+      <c r="G23" s="81" t="s">
         <v>77</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -7007,14 +6962,14 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
     </row>
-    <row r="24" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="119" t="s">
+    <row r="24" spans="1:18" ht="26" customHeight="1">
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="81" t="s">
         <v>76</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -7044,14 +6999,14 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
     </row>
-    <row r="25" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="119" t="s">
+    <row r="25" spans="1:18" ht="26" customHeight="1">
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="81" t="s">
         <v>123</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -7081,14 +7036,14 @@
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
     </row>
-    <row r="26" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="119" t="s">
+    <row r="26" spans="1:18" ht="26" customHeight="1">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="81" t="s">
         <v>75</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -7118,12 +7073,12 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
     </row>
-    <row r="27" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="110" t="s">
+    <row r="27" spans="1:18" ht="26" customHeight="1">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="100" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -7152,17 +7107,21 @@
         <f t="shared" si="1"/>
         <v>진행 전</v>
       </c>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
+      <c r="O27" s="79">
+        <v>45460</v>
+      </c>
+      <c r="P27" s="79">
+        <v>45461</v>
+      </c>
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
     </row>
-    <row r="28" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="111"/>
+    <row r="28" spans="1:18" ht="26" customHeight="1">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="2" t="s">
         <v>73</v>
       </c>
@@ -7189,17 +7148,21 @@
         <f t="shared" si="1"/>
         <v>진행 전</v>
       </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
+      <c r="O28" s="79">
+        <v>45462</v>
+      </c>
+      <c r="P28" s="79">
+        <v>45462</v>
+      </c>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
     </row>
-    <row r="29" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="111"/>
+    <row r="29" spans="1:18" ht="26" customHeight="1">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="2" t="s">
         <v>72</v>
       </c>
@@ -7226,17 +7189,21 @@
         <f t="shared" ref="N29:N36" si="2">IF(ISERROR(M29/L29), IFERROR(#DIV/0!, "진행 전"), M29/L29)</f>
         <v>진행 전</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
+      <c r="O29" s="79">
+        <v>45463</v>
+      </c>
+      <c r="P29" s="79">
+        <v>45463</v>
+      </c>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
     </row>
-    <row r="30" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="111"/>
+    <row r="30" spans="1:18" ht="26" customHeight="1">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
@@ -7265,18 +7232,22 @@
         <f t="shared" si="2"/>
         <v>진행 전</v>
       </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
+      <c r="O30" s="79">
+        <v>45464</v>
+      </c>
+      <c r="P30" s="79">
+        <v>45467</v>
+      </c>
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
     </row>
-    <row r="31" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="113" t="s">
+    <row r="31" spans="1:18" ht="26" customHeight="1">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="106" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -7304,18 +7275,22 @@
         <f t="shared" si="2"/>
         <v>진행 전</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="79">
+        <v>45468</v>
+      </c>
+      <c r="P31" s="79">
+        <v>45468</v>
+      </c>
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
     </row>
-    <row r="32" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="114"/>
+    <row r="32" spans="1:18" ht="26" customHeight="1">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="107"/>
       <c r="G32" s="2" t="s">
         <v>29</v>
       </c>
@@ -7341,18 +7316,22 @@
         <f t="shared" si="2"/>
         <v>진행 전</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
+      <c r="O32" s="79">
+        <v>45469</v>
+      </c>
+      <c r="P32" s="79">
+        <v>45469</v>
+      </c>
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
     </row>
-    <row r="33" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="113" t="s">
+    <row r="33" spans="1:18" ht="26" customHeight="1">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="106" t="s">
         <v>68</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -7380,18 +7359,22 @@
         <f t="shared" si="2"/>
         <v>진행 전</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
+      <c r="O33" s="79">
+        <v>45470</v>
+      </c>
+      <c r="P33" s="79">
+        <v>45470</v>
+      </c>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
     </row>
-    <row r="34" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="114"/>
+    <row r="34" spans="1:18" ht="26" customHeight="1">
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="107"/>
       <c r="G34" s="2" t="s">
         <v>30</v>
       </c>
@@ -7417,18 +7400,22 @@
         <f t="shared" si="2"/>
         <v>진행 전</v>
       </c>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
+      <c r="O34" s="79">
+        <v>45471</v>
+      </c>
+      <c r="P34" s="79">
+        <v>45471</v>
+      </c>
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
     </row>
-    <row r="35" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="113" t="s">
+    <row r="35" spans="1:18" ht="26" customHeight="1">
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="106" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -7456,18 +7443,22 @@
         <f t="shared" si="2"/>
         <v>진행 전</v>
       </c>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
+      <c r="O35" s="79">
+        <v>45471</v>
+      </c>
+      <c r="P35" s="79">
+        <v>45471</v>
+      </c>
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
     </row>
-    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="109"/>
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="114"/>
+    <row r="36" spans="1:18">
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="107"/>
       <c r="G36" s="2" t="s">
         <v>66</v>
       </c>
@@ -7492,6 +7483,12 @@
       <c r="N36" s="74" t="str">
         <f t="shared" si="2"/>
         <v>진행 전</v>
+      </c>
+      <c r="O36" s="79">
+        <v>45471</v>
+      </c>
+      <c r="P36" s="79">
+        <v>45471</v>
       </c>
     </row>
   </sheetData>
@@ -7524,18 +7521,18 @@
       <selection activeCell="G25" sqref="G25:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="48">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -7578,16 +7575,16 @@
       <c r="N1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="102" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="103"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="R1" s="95"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7618,26 +7615,26 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="80"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -7650,16 +7647,16 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="82" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="80"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -7672,16 +7669,16 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="110" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="18"/>
@@ -7696,14 +7693,14 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="80" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H6" s="18"/>
@@ -7718,14 +7715,14 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="80" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H7" s="18"/>
@@ -7740,14 +7737,14 @@
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="80" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H8" s="18"/>
@@ -7762,14 +7759,14 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="80" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="2" t="s">
         <v>136</v>
       </c>
       <c r="H9" s="18"/>
@@ -7784,14 +7781,14 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="80" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H10" s="18"/>
@@ -7806,16 +7803,16 @@
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="122" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="81" t="s">
         <v>139</v>
       </c>
       <c r="H11" s="18"/>
@@ -7830,14 +7827,14 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="119" t="s">
+    <row r="12" spans="1:18">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="81" t="s">
         <v>140</v>
       </c>
       <c r="H12" s="18"/>
@@ -7852,14 +7849,14 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="119" t="s">
+    <row r="13" spans="1:18">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="81" t="s">
         <v>141</v>
       </c>
       <c r="H13" s="18"/>
@@ -7874,14 +7871,14 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="119" t="s">
+    <row r="14" spans="1:18">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="81" t="s">
         <v>142</v>
       </c>
       <c r="H14" s="18"/>
@@ -7896,16 +7893,16 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="122" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="81" t="s">
         <v>144</v>
       </c>
       <c r="H15" s="18"/>
@@ -7920,14 +7917,14 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="119" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="81" t="s">
         <v>145</v>
       </c>
       <c r="H16" s="18"/>
@@ -7942,14 +7939,14 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="119" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="81" t="s">
         <v>146</v>
       </c>
       <c r="H17" s="18"/>
@@ -7964,14 +7961,14 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="119" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="81" t="s">
         <v>147</v>
       </c>
       <c r="H18" s="18"/>
@@ -7986,16 +7983,16 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="122" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="119" t="s">
+      <c r="G19" s="81" t="s">
         <v>148</v>
       </c>
       <c r="H19" s="18"/>
@@ -8010,14 +8007,14 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
     </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="119" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="81" t="s">
         <v>149</v>
       </c>
       <c r="H20" s="18"/>
@@ -8032,14 +8029,14 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="119" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="81" t="s">
         <v>142</v>
       </c>
       <c r="H21" s="18"/>
@@ -8054,14 +8051,14 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="119" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="81" t="s">
         <v>150</v>
       </c>
       <c r="H22" s="18"/>
@@ -8076,16 +8073,16 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="110" t="s">
+    <row r="23" spans="1:18">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="80" t="s">
+      <c r="G23" s="2" t="s">
         <v>152</v>
       </c>
       <c r="H23" s="18"/>
@@ -8100,14 +8097,14 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
     </row>
-    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="80" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="2" t="s">
         <v>153</v>
       </c>
       <c r="H24" s="18"/>
@@ -8122,14 +8119,14 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
     </row>
-    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="119" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="81" t="s">
         <v>154</v>
       </c>
       <c r="H25" s="18"/>
@@ -8144,14 +8141,14 @@
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
     </row>
-    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="119" t="s">
+    <row r="26" spans="1:18">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="81" t="s">
         <v>155</v>
       </c>
       <c r="H26" s="18"/>
@@ -8166,14 +8163,14 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
     </row>
-    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="119" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="81" t="s">
         <v>156</v>
       </c>
       <c r="H27" s="18"/>
@@ -8188,14 +8185,14 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
     </row>
-    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="119" t="s">
+    <row r="28" spans="1:18">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="81" t="s">
         <v>157</v>
       </c>
       <c r="H28" s="18"/>
@@ -8210,14 +8207,14 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
     </row>
-    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="80" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="2" t="s">
         <v>158</v>
       </c>
       <c r="H29" s="18"/>
@@ -8232,14 +8229,14 @@
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
     </row>
-    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="80" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="2" t="s">
         <v>159</v>
       </c>
       <c r="H30" s="18"/>
@@ -8254,14 +8251,14 @@
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
     </row>
-    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="80" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="2" t="s">
         <v>160</v>
       </c>
       <c r="H31" s="18"/>
@@ -8276,14 +8273,14 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
     </row>
-    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="80" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="2" t="s">
         <v>161</v>
       </c>
       <c r="H32" s="18"/>
@@ -8298,14 +8295,14 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
     </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="80" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="2" t="s">
         <v>162</v>
       </c>
       <c r="H33" s="18"/>
@@ -8320,18 +8317,18 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
     </row>
-    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="109"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="81" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="80" t="s">
+      <c r="F34" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="80" t="s">
+      <c r="G34" s="2" t="s">
         <v>164</v>
       </c>
       <c r="H34" s="18"/>
@@ -8363,6 +8360,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8374,17 +8372,17 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="48">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -8427,16 +8425,16 @@
       <c r="N1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="102" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="103"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="R1" s="95"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8467,26 +8465,26 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="83"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -8499,16 +8497,16 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="87" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -8521,16 +8519,16 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="84" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="83"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -8543,16 +8541,16 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="84" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="83"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -8565,16 +8563,16 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="84" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="83"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -8587,16 +8585,16 @@
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="84" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="83"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -8609,16 +8607,16 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="84" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="2" t="s">
         <v>172</v>
       </c>
       <c r="H9" s="18"/>
@@ -8633,16 +8631,16 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="110" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H10" s="18"/>
@@ -8657,14 +8655,14 @@
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="83" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="2" t="s">
         <v>174</v>
       </c>
       <c r="H11" s="18"/>
@@ -8679,14 +8677,14 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="83" t="s">
+    <row r="12" spans="1:18">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="2" t="s">
         <v>175</v>
       </c>
       <c r="H12" s="18"/>
@@ -8701,14 +8699,14 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="83" t="s">
+    <row r="13" spans="1:18">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="2" t="s">
         <v>176</v>
       </c>
       <c r="H13" s="18"/>
@@ -8723,14 +8721,14 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="83" t="s">
+    <row r="14" spans="1:18">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H14" s="18"/>
@@ -8745,14 +8743,14 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="83" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="2" t="s">
         <v>178</v>
       </c>
       <c r="H15" s="18"/>
@@ -8767,14 +8765,14 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="85" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="78" t="s">
         <v>179</v>
       </c>
       <c r="H16" s="18"/>
@@ -8789,14 +8787,14 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="83" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="2" t="s">
         <v>180</v>
       </c>
       <c r="H17" s="18"/>
@@ -8811,14 +8809,14 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="83" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="2" t="s">
         <v>181</v>
       </c>
       <c r="H18" s="18"/>
@@ -8833,14 +8831,14 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="83" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="2" t="s">
         <v>182</v>
       </c>
       <c r="H19" s="18"/>
@@ -8855,14 +8853,14 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
     </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="83" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="2" t="s">
         <v>183</v>
       </c>
       <c r="H20" s="18"/>
@@ -8877,14 +8875,14 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="83" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="2" t="s">
         <v>184</v>
       </c>
       <c r="H21" s="18"/>
@@ -8899,14 +8897,14 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="83" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="2" t="s">
         <v>185</v>
       </c>
       <c r="H22" s="18"/>
@@ -8921,14 +8919,14 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="83" t="s">
+    <row r="23" spans="1:18">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="2" t="s">
         <v>186</v>
       </c>
       <c r="H23" s="18"/>
@@ -8943,14 +8941,14 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
     </row>
-    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="83" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H24" s="18"/>
@@ -8965,16 +8963,16 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
     </row>
-    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="110" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="2" t="s">
         <v>189</v>
       </c>
       <c r="H25" s="18"/>
@@ -8989,14 +8987,14 @@
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
     </row>
-    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="83" t="s">
+    <row r="26" spans="1:18">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="2" t="s">
         <v>190</v>
       </c>
       <c r="H26" s="18"/>
@@ -9011,14 +9009,14 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
     </row>
-    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="83" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="2" t="s">
         <v>191</v>
       </c>
       <c r="H27" s="18"/>
@@ -9033,14 +9031,14 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
     </row>
-    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="83" t="s">
+    <row r="28" spans="1:18">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H28" s="18"/>
@@ -9055,14 +9053,14 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
     </row>
-    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="83" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="2" t="s">
         <v>193</v>
       </c>
       <c r="H29" s="18"/>
@@ -9077,14 +9075,14 @@
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
     </row>
-    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="83" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="2" t="s">
         <v>194</v>
       </c>
       <c r="H30" s="18"/>
@@ -9099,14 +9097,14 @@
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
     </row>
-    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="83" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="2" t="s">
         <v>195</v>
       </c>
       <c r="H31" s="18"/>
@@ -9121,16 +9119,16 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
     </row>
-    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="110" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="G32" s="83" t="s">
+      <c r="G32" s="2" t="s">
         <v>197</v>
       </c>
       <c r="H32" s="18"/>
@@ -9145,14 +9143,14 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
     </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="83" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="2" t="s">
         <v>198</v>
       </c>
       <c r="H33" s="18"/>
@@ -9167,14 +9165,14 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
     </row>
-    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="83" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="2" t="s">
         <v>199</v>
       </c>
       <c r="H34" s="18"/>
@@ -9189,14 +9187,14 @@
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
     </row>
-    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="83" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="2" t="s">
         <v>200</v>
       </c>
       <c r="H35" s="18"/>
@@ -9211,14 +9209,14 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
     </row>
-    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="83" t="s">
+    <row r="36" spans="1:18">
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="2" t="s">
         <v>201</v>
       </c>
       <c r="H36" s="18"/>
@@ -9233,14 +9231,14 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
     </row>
-    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="108"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="83" t="s">
+    <row r="37" spans="1:18">
+      <c r="A37" s="98"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="2" t="s">
         <v>202</v>
       </c>
       <c r="H37" s="18"/>
@@ -9255,14 +9253,14 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
     </row>
-    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="108"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="83" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" s="98"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="2" t="s">
         <v>203</v>
       </c>
       <c r="H38" s="18"/>
@@ -9277,14 +9275,14 @@
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
     </row>
-    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="83" t="s">
+    <row r="39" spans="1:18">
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H39" s="18"/>
@@ -9299,14 +9297,14 @@
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
     </row>
-    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="83" t="s">
+    <row r="40" spans="1:18">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="2" t="s">
         <v>205</v>
       </c>
       <c r="H40" s="18"/>
@@ -9321,16 +9319,16 @@
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
     </row>
-    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111" t="s">
+    <row r="41" spans="1:18">
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="G41" s="83" t="s">
+      <c r="G41" s="2" t="s">
         <v>206</v>
       </c>
       <c r="H41" s="18"/>
@@ -9345,14 +9343,14 @@
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
     </row>
-    <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A42" s="108"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="83" t="s">
+    <row r="42" spans="1:18">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="2" t="s">
         <v>160</v>
       </c>
       <c r="H42" s="18"/>
@@ -9367,14 +9365,14 @@
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
     </row>
-    <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" s="108"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="83" t="s">
+    <row r="43" spans="1:18">
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="2" t="s">
         <v>207</v>
       </c>
       <c r="H43" s="18"/>
@@ -9389,14 +9387,14 @@
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
     </row>
-    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="108"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="83" t="s">
+    <row r="44" spans="1:18">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="2" t="s">
         <v>208</v>
       </c>
       <c r="H44" s="18"/>
@@ -9411,14 +9409,14 @@
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
     </row>
-    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="108"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="83" t="s">
+    <row r="45" spans="1:18">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="2" t="s">
         <v>161</v>
       </c>
       <c r="H45" s="18"/>
@@ -9433,14 +9431,14 @@
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
     </row>
-    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" s="108"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="83" t="s">
+    <row r="46" spans="1:18">
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="2" t="s">
         <v>209</v>
       </c>
       <c r="H46" s="18"/>
@@ -9455,18 +9453,18 @@
       <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
     </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="109"/>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="86" t="s">
+    <row r="47" spans="1:18">
+      <c r="A47" s="99"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="83" t="s">
+      <c r="F47" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="83" t="s">
+      <c r="G47" s="2" t="s">
         <v>164</v>
       </c>
       <c r="H47" s="18"/>
@@ -9483,20 +9481,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:A47"/>
+    <mergeCell ref="B3:B47"/>
+    <mergeCell ref="C3:C47"/>
+    <mergeCell ref="D3:D47"/>
+    <mergeCell ref="E3:E46"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="F10:F24"/>
     <mergeCell ref="F25:F31"/>
     <mergeCell ref="F41:F46"/>
     <mergeCell ref="F32:F40"/>
-    <mergeCell ref="A3:A47"/>
-    <mergeCell ref="B3:B47"/>
-    <mergeCell ref="C3:C47"/>
-    <mergeCell ref="D3:D47"/>
-    <mergeCell ref="E3:E46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9508,17 +9507,17 @@
       <selection activeCell="E26" sqref="E26:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="48">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -9561,16 +9560,16 @@
       <c r="N1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="102" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="103"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="R1" s="95"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -9601,26 +9600,26 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -9633,16 +9632,16 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="91" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H4" s="18"/>
@@ -9657,16 +9656,16 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="91" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H5" s="18"/>
@@ -9681,16 +9680,16 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="91" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -9703,16 +9702,16 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="91" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -9725,18 +9724,18 @@
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="89" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -9749,16 +9748,16 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="89" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -9771,16 +9770,16 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="89" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -9793,16 +9792,16 @@
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="89" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -9815,16 +9814,16 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="89" t="s">
+    <row r="12" spans="1:18">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H12" s="18"/>
@@ -9839,16 +9838,16 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="89" t="s">
+    <row r="13" spans="1:18">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="G13" s="89"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -9861,18 +9860,18 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="116" t="s">
+    <row r="14" spans="1:18">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="F14" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H14" s="18"/>
@@ -9887,16 +9886,16 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="89" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -9909,16 +9908,16 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="90" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="88" t="s">
+      <c r="G16" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H16" s="18"/>
@@ -9933,16 +9932,16 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="90" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="88" t="s">
+      <c r="G17" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H17" s="18"/>
@@ -9957,16 +9956,16 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="89" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H18" s="18"/>
@@ -9981,16 +9980,16 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="89" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="G19" s="88" t="s">
+      <c r="G19" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H19" s="18"/>
@@ -10005,18 +10004,18 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
     </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="115" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="111" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="88" t="s">
+      <c r="F20" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -10029,16 +10028,16 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="88" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G21" s="88"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -10051,16 +10050,16 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="88" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -10073,18 +10072,18 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
     </row>
-    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="115" t="s">
+    <row r="23" spans="1:18">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G23" s="88" t="s">
+      <c r="G23" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H23" s="18"/>
@@ -10099,16 +10098,16 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
     </row>
-    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="88" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G24" s="88" t="s">
+      <c r="G24" s="2" t="s">
         <v>235</v>
       </c>
       <c r="H24" s="18"/>
@@ -10123,16 +10122,16 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
     </row>
-    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="88" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G25" s="88" t="s">
+      <c r="G25" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H25" s="18"/>
@@ -10147,18 +10146,18 @@
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
     </row>
-    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="115" t="s">
+    <row r="26" spans="1:18">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G26" s="88"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -10171,16 +10170,16 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
     </row>
-    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="90" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="G27" s="88" t="s">
+      <c r="G27" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H27" s="18"/>
@@ -10195,16 +10194,16 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
     </row>
-    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="90" t="s">
+    <row r="28" spans="1:18">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="88" t="s">
+      <c r="G28" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H28" s="18"/>
@@ -10219,16 +10218,16 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
     </row>
-    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="90" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="G29" s="88" t="s">
+      <c r="G29" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H29" s="18"/>
@@ -10243,16 +10242,16 @@
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
     </row>
-    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="90" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="G30" s="88" t="s">
+      <c r="G30" s="2" t="s">
         <v>239</v>
       </c>
       <c r="H30" s="18"/>
@@ -10267,18 +10266,18 @@
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
     </row>
-    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="115" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="111" t="s">
         <v>229</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="F31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G31" s="88" t="s">
+      <c r="G31" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H31" s="18"/>
@@ -10293,16 +10292,16 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
     </row>
-    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="88" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G32" s="88" t="s">
+      <c r="G32" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H32" s="18"/>
@@ -10317,16 +10316,16 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
     </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="88" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G33" s="88" t="s">
+      <c r="G33" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H33" s="18"/>
@@ -10341,16 +10340,16 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
     </row>
-    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="88" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="88" t="s">
+      <c r="G34" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H34" s="18"/>
@@ -10365,16 +10364,16 @@
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
     </row>
-    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="88" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G35" s="88" t="s">
+      <c r="G35" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H35" s="18"/>
@@ -10389,16 +10388,16 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
     </row>
-    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="88" t="s">
+    <row r="36" spans="1:18">
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G36" s="88" t="s">
+      <c r="G36" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H36" s="18"/>
@@ -10413,16 +10412,16 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
     </row>
-    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="108"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="88" t="s">
+    <row r="37" spans="1:18">
+      <c r="A37" s="98"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G37" s="88" t="s">
+      <c r="G37" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H37" s="18"/>
@@ -10437,16 +10436,16 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
     </row>
-    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="108"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="88" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" s="98"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G38" s="88" t="s">
+      <c r="G38" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H38" s="18"/>
@@ -10461,16 +10460,16 @@
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
     </row>
-    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="88" t="s">
+    <row r="39" spans="1:18">
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G39" s="88" t="s">
+      <c r="G39" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H39" s="18"/>
@@ -10485,16 +10484,16 @@
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
     </row>
-    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="88" t="s">
+    <row r="40" spans="1:18">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G40" s="88" t="s">
+      <c r="G40" s="2" t="s">
         <v>239</v>
       </c>
       <c r="H40" s="18"/>
@@ -10509,16 +10508,16 @@
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
     </row>
-    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="88" t="s">
+    <row r="41" spans="1:18">
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G41" s="88" t="s">
+      <c r="G41" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H41" s="18"/>
@@ -10533,16 +10532,16 @@
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
     </row>
-    <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A42" s="108"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="88" t="s">
+    <row r="42" spans="1:18">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G42" s="88" t="s">
+      <c r="G42" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H42" s="18"/>
@@ -10557,18 +10556,18 @@
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
     </row>
-    <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" s="108"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="115" t="s">
+    <row r="43" spans="1:18">
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="F43" s="89" t="s">
+      <c r="F43" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="G43" s="89"/>
+      <c r="G43" s="76"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -10581,16 +10580,16 @@
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
     </row>
-    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="108"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="89" t="s">
+    <row r="44" spans="1:18">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="G44" s="89"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -10603,16 +10602,16 @@
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
     </row>
-    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="108"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="89" t="s">
+    <row r="45" spans="1:18">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="G45" s="89"/>
+      <c r="G45" s="76"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
@@ -10625,16 +10624,16 @@
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
     </row>
-    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" s="108"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="89" t="s">
+    <row r="46" spans="1:18">
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="G46" s="88"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -10647,16 +10646,16 @@
       <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
     </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="108"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="88" t="s">
+    <row r="47" spans="1:18">
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G47" s="88"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
@@ -10669,16 +10668,16 @@
       <c r="Q47" s="18"/>
       <c r="R47" s="18"/>
     </row>
-    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="108"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="88" t="s">
+    <row r="48" spans="1:18">
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G48" s="88"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -10691,16 +10690,16 @@
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
     </row>
-    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A49" s="108"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="90" t="s">
+    <row r="49" spans="1:18">
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="G49" s="88"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -10713,16 +10712,16 @@
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
     </row>
-    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="108"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="88" t="s">
+    <row r="50" spans="1:18">
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G50" s="88"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -10735,16 +10734,16 @@
       <c r="Q50" s="18"/>
       <c r="R50" s="18"/>
     </row>
-    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="109"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="88" t="s">
+    <row r="51" spans="1:18">
+      <c r="A51" s="99"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G51" s="88"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -10775,5 +10774,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>